--- a/Report/Requirement.xlsx
+++ b/Report/Requirement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPT Polytechnic\Graduation\G4U\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF727E30-B0D5-42EA-BD1E-C7C492528DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB28AD4-3F87-4B13-B97F-606A559A4AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66551FA1-06BE-4D31-8093-516AC48B2C2B}"/>
   </bookViews>
@@ -619,6 +619,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -633,12 +639,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3038,10 +3038,10 @@
   <dimension ref="A1:U318"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3065,24 +3065,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="7"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
       <c r="S1" s="9" t="s">
         <v>24</v>
       </c>
@@ -3090,14 +3090,14 @@
       <c r="U1" s="9"/>
     </row>
     <row r="2" spans="1:21" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="29"/>
+      <c r="D2" s="31"/>
       <c r="E2" s="7"/>
       <c r="S2" s="10" t="s">
         <v>23</v>
@@ -3108,28 +3108,28 @@
       <c r="U2" s="10"/>
     </row>
     <row r="3" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
       <c r="U3" s="10"/>
     </row>
     <row r="4" spans="1:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3258,7 +3258,9 @@
       <c r="O6" s="22"/>
       <c r="P6" s="21"/>
       <c r="R6" s="22"/>
-      <c r="S6" s="23"/>
+      <c r="S6" s="20" t="s">
+        <v>20</v>
+      </c>
       <c r="T6" s="8" t="s">
         <v>43</v>
       </c>
@@ -4084,9 +4086,7 @@
       <c r="O30" s="22"/>
       <c r="P30" s="21"/>
       <c r="R30" s="22"/>
-      <c r="S30" s="23" t="s">
-        <v>20</v>
-      </c>
+      <c r="S30" s="23"/>
       <c r="T30" s="8"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">

--- a/Report/Requirement.xlsx
+++ b/Report/Requirement.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="182">
   <si>
     <t>Project Name:</t>
   </si>
@@ -459,6 +459,9 @@
   </si>
   <si>
     <t>Phân vùng tương đương pass</t>
+  </si>
+  <si>
+    <t>Giá trị biên</t>
   </si>
   <si>
     <t>TestCase ID</t>
@@ -10444,7 +10447,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
@@ -10846,7 +10849,7 @@
   <dimension ref="B3:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -10911,199 +10914,201 @@
     </row>
     <row r="11" ht="51" customHeight="1"/>
     <row r="12" ht="43.2" spans="3:12">
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="D12" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="K12" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="J12" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" ht="86.4" spans="3:12">
       <c r="C13" s="4"/>
       <c r="D13" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E13" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J13" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>147</v>
-      </c>
       <c r="K13" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="L13" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="14" ht="86.4" spans="3:12">
       <c r="C14" s="4"/>
       <c r="D14" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>151</v>
-      </c>
       <c r="K14" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" ht="48" customHeight="1" spans="3:12">
       <c r="C15" s="4"/>
       <c r="D15" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F15" s="5"/>
       <c r="J15" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" ht="57.6" spans="3:12">
       <c r="C16" s="4"/>
       <c r="D16" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F16" s="5"/>
       <c r="J16" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" ht="65" customHeight="1" spans="3:12">
       <c r="C17" s="4"/>
       <c r="D17" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F17" s="5"/>
       <c r="J17" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" ht="86.4" spans="3:12">
       <c r="C18" s="4"/>
       <c r="D18" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F18" s="5"/>
       <c r="J18" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" ht="57.6" spans="3:12">
       <c r="C19" s="4"/>
       <c r="D19" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F19" s="5"/>
       <c r="J19" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" ht="57.6" spans="3:12">
       <c r="C20" s="4"/>
       <c r="D20" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F20" s="5"/>
       <c r="J20" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" ht="57.6" spans="3:12">
       <c r="C21" s="6"/>
       <c r="D21" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F21" s="5"/>
       <c r="J21" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="L21" s="8" t="s">
         <v>179</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/Report/Requirement.xlsx
+++ b/Report/Requirement.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="801">
   <si>
     <t>Project Name:</t>
   </si>
@@ -1520,6 +1520,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Thông báo lỗi: </t>
     </r>
     <r>
@@ -1550,6 +1556,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>Name: "Arena Of Valor"</t>
     </r>
     <r>
@@ -1707,6 +1719,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>1. Đăng nhập bằng tài khoản có Role Admin</t>
     </r>
     <r>
@@ -1797,6 +1815,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Thông báo lỗi: </t>
     </r>
     <r>
@@ -1937,6 +1961,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>Name: "Arena Of Valor"</t>
     </r>
     <r>
@@ -2075,6 +2105,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Thông báo lỗi: </t>
     </r>
     <r>
@@ -2802,6 +2838,9 @@
     <t xml:space="preserve">Pass </t>
   </si>
   <si>
+    <t>CC-02</t>
+  </si>
+  <si>
     <t>Create Categories không thành công với Name rỗng</t>
   </si>
   <si>
@@ -2815,6 +2854,9 @@
 "Category name is required"</t>
   </si>
   <si>
+    <t>CC-03</t>
+  </si>
+  <si>
     <t>Create Categories không thành công với Name &lt; 4 ký tự</t>
   </si>
   <si>
@@ -2828,6 +2870,9 @@
 "Category name must be at least 4 and at  most 32 characters long."</t>
   </si>
   <si>
+    <t>CC-04</t>
+  </si>
+  <si>
     <t>Create Categories không thành công với Name &gt; 32 ký tự</t>
   </si>
   <si>
@@ -2841,6 +2886,9 @@
 "Category name must be at least 4 and at  most 33 characters long."</t>
   </si>
   <si>
+    <t>CC-05</t>
+  </si>
+  <si>
     <t>Create Categories không thành công với Name chứa ký tự là số</t>
   </si>
   <si>
@@ -2854,6 +2902,9 @@
 "Category name cannot contain numbers of special characters."</t>
   </si>
   <si>
+    <t>CC-06</t>
+  </si>
+  <si>
     <t>Create Categories không thành công với Name chứa ký tự đặc biệt</t>
   </si>
   <si>
@@ -2861,6 +2912,527 @@
 Description: "Trò chơi phiêu lưu....."
 Type: "Tag"
 Status: "Active"</t>
+  </si>
+  <si>
+    <t>CC-07</t>
+  </si>
+  <si>
+    <t>Create Categories không thành công với Description &gt; 10000 ký tự</t>
+  </si>
+  <si>
+    <t>Name: "Adventure"
+Description: "A" . Repeat(10001)
+Type: "Tag"
+Status: "Active"</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo:
+"Description must be at most 10000 characters long."</t>
+  </si>
+  <si>
+    <t>CC-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Categories thành công với Name = 4 ký tự </t>
+  </si>
+  <si>
+    <t>Name: "Game"
+Description: "Trò chơi phiêu lưu....."
+Type: "Tag"
+Status: "Active"</t>
+  </si>
+  <si>
+    <t>CC-09</t>
+  </si>
+  <si>
+    <t>Create Categories thành công với Name = 32 ký tự</t>
+  </si>
+  <si>
+    <t>Name: "ThisIsAStringWithExactly33Chars"
+Description: "Trò chơi phiêu lưu....."
+Type: "Tag"
+Status: "Active"</t>
+  </si>
+  <si>
+    <t>CC-10</t>
+  </si>
+  <si>
+    <t>Create Categories thành công với Description rỗng</t>
+  </si>
+  <si>
+    <t>Name: "Adventure"
+Description: 
+Type: "Tag"
+Status: "Active"</t>
+  </si>
+  <si>
+    <t>CC-11</t>
+  </si>
+  <si>
+    <t>Create Categories thành công với Description = 10000 ký tự</t>
+  </si>
+  <si>
+    <t>Name: "Adventure"
+Description: "A".Repeat(10000)
+Type: "Tag"
+Status: "Active"</t>
+  </si>
+  <si>
+    <t>UPDATE CATEGORY (ADMIN - UC)</t>
+  </si>
+  <si>
+    <t>UC-01</t>
+  </si>
+  <si>
+    <t>Update Categories thành công với các trường hợp lệ</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập bằng tài khoản có Role Admin
+2. Vào trang Categories Manager
+3. Chọn Update
+4. Nhập thông tin
+5. Nhấn nút Update</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo:
+"Update Category Successfully"</t>
+  </si>
+  <si>
+    <t>UC-02</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo:
+"Update name is required"</t>
+  </si>
+  <si>
+    <t>UC-03</t>
+  </si>
+  <si>
+    <t>UC-04</t>
+  </si>
+  <si>
+    <t>UC-05</t>
+  </si>
+  <si>
+    <t>UC-06</t>
+  </si>
+  <si>
+    <t>UC-07</t>
+  </si>
+  <si>
+    <t>UC-08</t>
+  </si>
+  <si>
+    <t>UC-09</t>
+  </si>
+  <si>
+    <t>UC-10</t>
+  </si>
+  <si>
+    <t>UC-11</t>
+  </si>
+  <si>
+    <t>FILTER COMMENT (ADMIN - FC)</t>
+  </si>
+  <si>
+    <t>FC - 01</t>
+  </si>
+  <si>
+    <t>Filter Comment với Status = "Active"</t>
+  </si>
+  <si>
+    <t>Status: Active</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập bằng tài khoản có Role Admin
+2. Vào trang Comment Manager
+3. Chọn Status
+4. Chọn Active</t>
+  </si>
+  <si>
+    <t>Hiển thị các Comment có Status là Active</t>
+  </si>
+  <si>
+    <t>FC - 02</t>
+  </si>
+  <si>
+    <t>Filter Comment với Status = "Inactive"</t>
+  </si>
+  <si>
+    <t>Status: Inactive</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập bằng tài khoản có Role Admin
+2. Vào trang Comment Manager
+3. Chọn Status
+4. Chọn Inactive</t>
+  </si>
+  <si>
+    <t>Hiển thị các Comment có Status là Inactive</t>
+  </si>
+  <si>
+    <t>FC - 03</t>
+  </si>
+  <si>
+    <t>Filter Comment với Status = "Block"</t>
+  </si>
+  <si>
+    <t>Status: Block</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập bằng tài khoản có Role Admin
+2. Vào trang Comment Manager
+3. Chọn Status
+4. Chọn Block</t>
+  </si>
+  <si>
+    <t>Hiển thị các Comment có Status là Block</t>
+  </si>
+  <si>
+    <t>FC - 04</t>
+  </si>
+  <si>
+    <t>Filter Comment với Status = "Deleted"</t>
+  </si>
+  <si>
+    <t>Status: Deleted</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập bằng tài khoản có Role Admin
+2. Vào trang Comment Manager
+3. Chọn Status
+4. Chọn Deleted</t>
+  </si>
+  <si>
+    <t>Hiển thị các Comment có Status là Deleted</t>
+  </si>
+  <si>
+    <t>CREATE USER (ADMIN - CU)</t>
+  </si>
+  <si>
+    <t>CU - 01</t>
+  </si>
+  <si>
+    <t>Create User thành công với các trường hợp lệ</t>
+  </si>
+  <si>
+    <t>UserName: "Usertest"
+Email: "nhan87209@gmail.com"
+Role: "User"</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập bằng tài khoản có Role Admin
+2. Vào trang User Manager
+3. Chọn Add
+4. Nhập thông tin
+5. Chọn Create</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo
+"Create Succesfully"</t>
+  </si>
+  <si>
+    <t>Create User không thành công với UserName rỗng</t>
+  </si>
+  <si>
+    <t>UserName: ""
+Email: "nhan87209@gmail.com"
+Role: "User"</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo
+"The UserName field is required"</t>
+  </si>
+  <si>
+    <t>Create User không thành công với UserName &lt; 6 ký tự</t>
+  </si>
+  <si>
+    <t>UserName: "a"
+Email: "nhan87209@gmail.com"
+Role: "User"</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo
+"The UserName must be at least 6 and at max 320 characters long."</t>
+  </si>
+  <si>
+    <t>Create User không thành công với UserName &gt; 320 ký tự</t>
+  </si>
+  <si>
+    <t>UserName: "a".Repeat(321)
+Email: "nhan87209@gmail.com"
+Role: "User"</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo
+"Please enter no more than 320 characters."</t>
+  </si>
+  <si>
+    <t>Create User không thành công với UserName có ký tự đặc biệt</t>
+  </si>
+  <si>
+    <t>UserName: "Usertest@"
+Email: "nhan87209@gmail.com"
+Role: "User"</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo
+"The UserName can only contain letters, numbers, underscores(_), hyphens(-), and must not contain consecutive spaces"</t>
+  </si>
+  <si>
+    <t>Create User không thành công với Email rỗng</t>
+  </si>
+  <si>
+    <t>UserName: "Usertest"
+Email: 
+Role: "User"</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo
+"The Email field is required"</t>
+  </si>
+  <si>
+    <t>Create User không thành công với Email không đúng định dạng</t>
+  </si>
+  <si>
+    <t>UserName: "Usertest@"
+Email: "nhan87209"
+Role: "User"</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo
+"The Email field is not a valid e-mail address"</t>
+  </si>
+  <si>
+    <t>FILTER USER (ADMIN - FU)</t>
+  </si>
+  <si>
+    <t>FU - 01</t>
+  </si>
+  <si>
+    <t>Filter User với UserStatus = "User"</t>
+  </si>
+  <si>
+    <t>User Status: User</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập bằng tài khoản có Role Admin
+2. Vào trang User Manager
+3. Chọn User Status
+4. Chọn User</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo
+"Filter User with role "User"  is Successfully
+Đồng thời Hiển thị các User có User Status là "User"</t>
+  </si>
+  <si>
+    <t>FU - 02</t>
+  </si>
+  <si>
+    <t>Filter User với UserStatus = "Admin"</t>
+  </si>
+  <si>
+    <t>User Status: Admin</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập bằng tài khoản có Role Admin
+2. Vào trang User Manager
+3. Chọn User Status
+4. Chọn Admin</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo
+"Filter User with role "Admin"  is Successfully
+Đồng thời Hiển thị các User có User Status là "Admin"</t>
+  </si>
+  <si>
+    <t>FU - 03</t>
+  </si>
+  <si>
+    <t>Filter User với UserStatus = "Developer"</t>
+  </si>
+  <si>
+    <t>User Status: Developer</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập bằng tài khoản có Role Admin
+2. Vào trang User Manager
+3. Chọn User Status
+4. Chọn Developer</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo
+"Filter User with role "Developer"  is Successfully
+Đồng thời Hiển thị các User có User Status là "Developer"</t>
+  </si>
+  <si>
+    <t>FU - 04</t>
+  </si>
+  <si>
+    <t>Filter User với UserStatus = "Active"</t>
+  </si>
+  <si>
+    <t>User Status: Active</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập bằng tài khoản có Role Admin
+2. Vào trang User Manager
+3. Chọn User Status
+4. Chọn Active</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo
+"Filter User with UserStatus "Active"  is Successfully
+Đồng thời Hiển thị các User có User Status là "Active"</t>
+  </si>
+  <si>
+    <t>FU - 05</t>
+  </si>
+  <si>
+    <t>Filter User với UserStatus = "Inactive"</t>
+  </si>
+  <si>
+    <t>User Status: Inactive</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập bằng tài khoản có Role Admin
+2. Vào trang User Manager
+3. Chọn User Status
+4. Chọn Inactive</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo
+"Filter User with UserStatus "Inactive"  is Successfully
+Đồng thời Hiển thị các User có User Status là "Inactive"</t>
+  </si>
+  <si>
+    <t>FU - 06</t>
+  </si>
+  <si>
+    <t>Filter User với UserStatus = "Block"</t>
+  </si>
+  <si>
+    <t>User Status: Block</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập bằng tài khoản có Role Admin
+2. Vào trang User Manager
+3. Chọn User Status
+4. Chọn Block</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo
+"Filter User with UserStatus "Block"  is Successfully
+Đồng thời Hiển thị các User có User Status là "Block"</t>
+  </si>
+  <si>
+    <t>FU - 07</t>
+  </si>
+  <si>
+    <t>Filter User với UserStatus = "Deleted"</t>
+  </si>
+  <si>
+    <t>User Status: Deleted</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập bằng tài khoản có Role Admin
+2. Vào trang User Manager
+3. Chọn User Status
+4. Chọn Deleted</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo
+"Filter User with UserStatus "Deleted"  is Successfully
+Đồng thời Hiển thị các User có User Status là "Deleted"</t>
+  </si>
+  <si>
+    <t>FU - 08</t>
+  </si>
+  <si>
+    <t>Filter User với Email Confirm = "Unconfirmed"</t>
+  </si>
+  <si>
+    <t>Email Confirm: Unconfirmed</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập bằng tài khoản có Role Admin
+2. Vào trang User Manager
+3. Chọn Email Confirm
+4. Chọn Unconfirmed</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo
+"Filter User with Email Confirm "Unconfirmed"  is Successfully
+Đồng thời Hiển thị các User có User Status là "Unconfirmed"</t>
+  </si>
+  <si>
+    <t>FU - 09</t>
+  </si>
+  <si>
+    <t>Filter User viới Email; Confirm = "Confirmed"</t>
+  </si>
+  <si>
+    <t>Email Confirm: Confirmed</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập bằng tài khoản có Role Admin
+2. Vào trang User Manager
+3. Chọn Email Confirm
+4. Chọn Confirmed</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo
+"Filter User with Email Confirm "Confirmed"  is Successfully
+Đồng thời Hiển thị các User có User Status là "Confirmed"</t>
+  </si>
+  <si>
+    <t>SEARCH USER (ADMIN - SU)</t>
+  </si>
+  <si>
+    <t>SU-01</t>
+  </si>
+  <si>
+    <t>Search User với UserName</t>
+  </si>
+  <si>
+    <t>UserName: usertest2</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập bằng tài khoản có Role Admin
+2. Vào trang User Manager
+3. Nhập thông tin tìm kiếm
+4. Nhấn Enter</t>
+  </si>
+  <si>
+    <t>Hiển thị user có UserName là "usertest2". Nếu không có UserName, sẽ hiển thị thông báo {UserName} not found</t>
+  </si>
+  <si>
+    <t>Search User với DisplayName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DisplayName: Sơn Tùng MTP </t>
+  </si>
+  <si>
+    <t>Hiển thị user có Display là "Sơn Tùng MTP". Nếu không có DisplayName, sẽ hiển thị thông báo {DisplayName} not found</t>
+  </si>
+  <si>
+    <t>Search User với Email</t>
+  </si>
+  <si>
+    <t>Email: usertest2@example.com</t>
+  </si>
+  <si>
+    <t>Hiển thị user có Email là "usertest2@example.com". Nếu không có DisplayName, sẽ hiển thị thông báo {email} not found</t>
+  </si>
+  <si>
+    <t>Search User với SDT</t>
+  </si>
+  <si>
+    <t>SDT: 0123476512</t>
+  </si>
+  <si>
+    <t>Hiển thị user có SDT là "0123476512". Nếu không có DisplayName, sẽ hiển thị thông báo {SDT} not found</t>
   </si>
 </sst>
 </file>
@@ -2870,8 +3442,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -2944,22 +3516,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2981,7 +3538,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3019,16 +3576,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3051,10 +3600,33 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3066,7 +3638,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3074,7 +3646,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3101,25 +3673,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3131,61 +3751,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3203,13 +3787,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3221,13 +3799,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3239,43 +3847,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3516,30 +4088,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -3557,6 +4105,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3587,15 +4144,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3610,10 +4158,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3631,130 +4203,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3832,12 +4404,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3851,10 +4417,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -12761,14 +13333,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:O30">
-      <formula1>"Pass, Fail, N/A"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F30">
       <formula1>"Business, Stakeholder, Functional, Non-Functional, Transition"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S5:S30">
       <formula1>"Not Started, In Progress, Partial Completion, Complete"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:O30">
+      <formula1>"Pass, Fail, N/A"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12830,10 +13402,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I250"/>
+  <dimension ref="A1:I329"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
@@ -14257,8 +14829,8 @@
       <c r="I67" s="11"/>
     </row>
     <row r="68" ht="82.8" spans="1:9">
-      <c r="A68" s="25"/>
-      <c r="B68" s="26" t="s">
+      <c r="A68" s="11"/>
+      <c r="B68" s="12" t="s">
         <v>256</v>
       </c>
       <c r="C68" s="13" t="s">
@@ -14279,11 +14851,11 @@
       <c r="H68" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I68" s="25"/>
+      <c r="I68" s="11"/>
     </row>
     <row r="69" ht="124.2" spans="1:9">
-      <c r="A69" s="25"/>
-      <c r="B69" s="26" t="s">
+      <c r="A69" s="11"/>
+      <c r="B69" s="12" t="s">
         <v>258</v>
       </c>
       <c r="C69" s="13" t="s">
@@ -14304,11 +14876,11 @@
       <c r="H69" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I69" s="25"/>
+      <c r="I69" s="11"/>
     </row>
     <row r="70" spans="3:4">
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="17" t="s">
@@ -15460,7 +16032,7 @@
       <c r="D147" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="E147" s="28" t="s">
+      <c r="E147" s="26" t="s">
         <v>399</v>
       </c>
       <c r="F147" s="11" t="s">
@@ -15478,25 +16050,25 @@
       <c r="A148" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="B148" s="28" t="s">
+      <c r="B148" s="26" t="s">
         <v>401</v>
       </c>
-      <c r="C148" s="29" t="s">
+      <c r="C148" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="D148" s="29" t="s">
+      <c r="D148" s="27" t="s">
         <v>403</v>
       </c>
-      <c r="E148" s="28" t="s">
+      <c r="E148" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="F148" s="30" t="s">
+      <c r="F148" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="G148" s="30" t="s">
+      <c r="G148" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="H148" s="30" t="s">
+      <c r="H148" s="28" t="s">
         <v>114</v>
       </c>
       <c r="I148" s="11"/>
@@ -15721,25 +16293,25 @@
       <c r="A157" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="B157" s="28" t="s">
+      <c r="B157" s="26" t="s">
         <v>348</v>
       </c>
-      <c r="C157" s="29" t="s">
+      <c r="C157" s="27" t="s">
         <v>430</v>
       </c>
-      <c r="D157" s="29" t="s">
+      <c r="D157" s="27" t="s">
         <v>403</v>
       </c>
-      <c r="E157" s="28" t="s">
+      <c r="E157" s="26" t="s">
         <v>431</v>
       </c>
-      <c r="F157" s="30" t="s">
+      <c r="F157" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="G157" s="30" t="s">
+      <c r="G157" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="H157" s="30" t="s">
+      <c r="H157" s="28" t="s">
         <v>114</v>
       </c>
       <c r="I157" s="11"/>
@@ -16105,758 +16677,758 @@
       </c>
     </row>
     <row r="182" ht="82.8" spans="1:9">
-      <c r="A182" s="25" t="s">
+      <c r="A182" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="B182" s="26" t="s">
+      <c r="B182" s="12" t="s">
         <v>466</v>
       </c>
-      <c r="C182" s="31" t="s">
+      <c r="C182" s="13" t="s">
         <v>467</v>
       </c>
       <c r="D182" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="E182" s="26" t="s">
+      <c r="E182" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="F182" s="25" t="s">
+      <c r="F182" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G182" s="25" t="s">
+      <c r="G182" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H182" s="25" t="s">
+      <c r="H182" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I182" s="25"/>
+      <c r="I182" s="11"/>
     </row>
     <row r="183" ht="82.8" spans="1:9">
-      <c r="A183" s="25" t="s">
+      <c r="A183" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="B183" s="26" t="s">
+      <c r="B183" s="12" t="s">
         <v>471</v>
       </c>
-      <c r="C183" s="31" t="s">
+      <c r="C183" s="13" t="s">
         <v>472</v>
       </c>
       <c r="D183" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="E183" s="26"/>
-      <c r="F183" s="25" t="s">
+      <c r="E183" s="12"/>
+      <c r="F183" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G183" s="25" t="s">
+      <c r="G183" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H183" s="25" t="s">
+      <c r="H183" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I183" s="25"/>
+      <c r="I183" s="11"/>
     </row>
     <row r="184" ht="82.8" spans="1:9">
-      <c r="A184" s="25" t="s">
+      <c r="A184" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="B184" s="26" t="s">
+      <c r="B184" s="12" t="s">
         <v>474</v>
       </c>
-      <c r="C184" s="32" t="s">
+      <c r="C184" s="18" t="s">
         <v>475</v>
       </c>
       <c r="D184" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="E184" s="26" t="s">
+      <c r="E184" s="12" t="s">
         <v>476</v>
       </c>
-      <c r="F184" s="25" t="s">
+      <c r="F184" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G184" s="25" t="s">
+      <c r="G184" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H184" s="25" t="s">
+      <c r="H184" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I184" s="25"/>
+      <c r="I184" s="11"/>
     </row>
     <row r="185" ht="82.8" spans="1:9">
-      <c r="A185" s="25" t="s">
+      <c r="A185" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="B185" s="26" t="s">
+      <c r="B185" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="C185" s="32" t="s">
+      <c r="C185" s="18" t="s">
         <v>479</v>
       </c>
       <c r="D185" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="E185" s="26" t="s">
+      <c r="E185" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="F185" s="25" t="s">
+      <c r="F185" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G185" s="25" t="s">
+      <c r="G185" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H185" s="25" t="s">
+      <c r="H185" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I185" s="25"/>
+      <c r="I185" s="11"/>
     </row>
     <row r="186" ht="82.8" spans="1:9">
-      <c r="A186" s="25" t="s">
+      <c r="A186" s="11" t="s">
         <v>481</v>
       </c>
-      <c r="B186" s="26" t="s">
+      <c r="B186" s="12" t="s">
         <v>482</v>
       </c>
-      <c r="C186" s="32" t="s">
+      <c r="C186" s="18" t="s">
         <v>483</v>
       </c>
       <c r="D186" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="E186" s="26" t="s">
+      <c r="E186" s="12" t="s">
         <v>484</v>
       </c>
-      <c r="F186" s="25" t="s">
+      <c r="F186" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G186" s="25" t="s">
+      <c r="G186" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H186" s="25" t="s">
+      <c r="H186" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I186" s="25"/>
+      <c r="I186" s="11"/>
     </row>
     <row r="187" ht="82.8" spans="1:9">
-      <c r="A187" s="25" t="s">
+      <c r="A187" s="11" t="s">
         <v>485</v>
       </c>
-      <c r="B187" s="26" t="s">
+      <c r="B187" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="C187" s="32" t="s">
+      <c r="C187" s="18" t="s">
         <v>487</v>
       </c>
       <c r="D187" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="E187" s="26" t="s">
+      <c r="E187" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="F187" s="25" t="s">
+      <c r="F187" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G187" s="25" t="s">
+      <c r="G187" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H187" s="25" t="s">
+      <c r="H187" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I187" s="25"/>
+      <c r="I187" s="11"/>
     </row>
     <row r="188" ht="82.8" spans="1:9">
-      <c r="A188" s="25" t="s">
+      <c r="A188" s="11" t="s">
         <v>489</v>
       </c>
-      <c r="B188" s="26" t="s">
+      <c r="B188" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="C188" s="32" t="s">
+      <c r="C188" s="18" t="s">
         <v>491</v>
       </c>
       <c r="D188" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="E188" s="26" t="s">
+      <c r="E188" s="12" t="s">
         <v>492</v>
       </c>
-      <c r="F188" s="25" t="s">
+      <c r="F188" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G188" s="25" t="s">
+      <c r="G188" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H188" s="25" t="s">
+      <c r="H188" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I188" s="25"/>
+      <c r="I188" s="11"/>
     </row>
     <row r="189" ht="82.8" spans="1:9">
-      <c r="A189" s="25" t="s">
+      <c r="A189" s="11" t="s">
         <v>493</v>
       </c>
-      <c r="B189" s="26" t="s">
+      <c r="B189" s="12" t="s">
         <v>494</v>
       </c>
-      <c r="C189" s="32" t="s">
+      <c r="C189" s="18" t="s">
         <v>495</v>
       </c>
       <c r="D189" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="E189" s="26" t="s">
+      <c r="E189" s="12" t="s">
         <v>496</v>
       </c>
-      <c r="F189" s="25" t="s">
+      <c r="F189" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G189" s="25" t="s">
+      <c r="G189" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H189" s="25" t="s">
+      <c r="H189" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I189" s="25"/>
+      <c r="I189" s="11"/>
     </row>
     <row r="190" ht="82.8" spans="1:9">
-      <c r="A190" s="25" t="s">
+      <c r="A190" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="B190" s="26" t="s">
+      <c r="B190" s="12" t="s">
         <v>498</v>
       </c>
-      <c r="C190" s="32" t="s">
+      <c r="C190" s="18" t="s">
         <v>499</v>
       </c>
       <c r="D190" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="E190" s="26" t="s">
+      <c r="E190" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="F190" s="25" t="s">
+      <c r="F190" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G190" s="25" t="s">
+      <c r="G190" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H190" s="25" t="s">
+      <c r="H190" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I190" s="25"/>
+      <c r="I190" s="11"/>
     </row>
     <row r="191" ht="82.8" spans="1:9">
-      <c r="A191" s="25" t="s">
+      <c r="A191" s="11" t="s">
         <v>501</v>
       </c>
-      <c r="B191" s="26" t="s">
+      <c r="B191" s="12" t="s">
         <v>502</v>
       </c>
-      <c r="C191" s="32" t="s">
+      <c r="C191" s="18" t="s">
         <v>503</v>
       </c>
       <c r="D191" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="E191" s="26" t="s">
+      <c r="E191" s="12" t="s">
         <v>504</v>
       </c>
-      <c r="F191" s="25" t="s">
+      <c r="F191" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G191" s="25" t="s">
+      <c r="G191" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H191" s="25" t="s">
+      <c r="H191" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I191" s="25"/>
+      <c r="I191" s="11"/>
     </row>
     <row r="192" ht="82.8" spans="1:9">
-      <c r="A192" s="25" t="s">
+      <c r="A192" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="B192" s="26" t="s">
+      <c r="B192" s="12" t="s">
         <v>506</v>
       </c>
-      <c r="C192" s="32" t="s">
+      <c r="C192" s="18" t="s">
         <v>507</v>
       </c>
       <c r="D192" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="E192" s="26" t="s">
+      <c r="E192" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="F192" s="25" t="s">
+      <c r="F192" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G192" s="25" t="s">
+      <c r="G192" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H192" s="25" t="s">
+      <c r="H192" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I192" s="25"/>
+      <c r="I192" s="11"/>
     </row>
     <row r="193" ht="82.8" spans="1:9">
-      <c r="A193" s="25" t="s">
+      <c r="A193" s="11" t="s">
         <v>509</v>
       </c>
-      <c r="B193" s="26" t="s">
+      <c r="B193" s="12" t="s">
         <v>510</v>
       </c>
-      <c r="C193" s="32" t="s">
+      <c r="C193" s="18" t="s">
         <v>511</v>
       </c>
       <c r="D193" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="E193" s="26" t="s">
+      <c r="E193" s="12" t="s">
         <v>512</v>
       </c>
-      <c r="F193" s="25" t="s">
+      <c r="F193" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G193" s="25" t="s">
+      <c r="G193" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H193" s="25" t="s">
+      <c r="H193" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I193" s="25"/>
+      <c r="I193" s="11"/>
     </row>
     <row r="194" ht="82.8" spans="1:9">
-      <c r="A194" s="25" t="s">
+      <c r="A194" s="11" t="s">
         <v>513</v>
       </c>
-      <c r="B194" s="26" t="s">
+      <c r="B194" s="12" t="s">
         <v>514</v>
       </c>
-      <c r="C194" s="32" t="s">
+      <c r="C194" s="18" t="s">
         <v>515</v>
       </c>
       <c r="D194" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="E194" s="26" t="s">
+      <c r="E194" s="12" t="s">
         <v>516</v>
       </c>
-      <c r="F194" s="25" t="s">
+      <c r="F194" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G194" s="25" t="s">
+      <c r="G194" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H194" s="25" t="s">
+      <c r="H194" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I194" s="25"/>
+      <c r="I194" s="11"/>
     </row>
     <row r="195" ht="82.8" spans="1:9">
-      <c r="A195" s="25" t="s">
+      <c r="A195" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="B195" s="26" t="s">
+      <c r="B195" s="12" t="s">
         <v>518</v>
       </c>
-      <c r="C195" s="32" t="s">
+      <c r="C195" s="18" t="s">
         <v>519</v>
       </c>
       <c r="D195" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="E195" s="26" t="s">
+      <c r="E195" s="12" t="s">
         <v>520</v>
       </c>
-      <c r="F195" s="25" t="s">
+      <c r="F195" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G195" s="25" t="s">
+      <c r="G195" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H195" s="25" t="s">
+      <c r="H195" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I195" s="25"/>
+      <c r="I195" s="11"/>
     </row>
     <row r="196" ht="82.8" spans="1:9">
-      <c r="A196" s="25" t="s">
+      <c r="A196" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="B196" s="26" t="s">
+      <c r="B196" s="12" t="s">
         <v>522</v>
       </c>
-      <c r="C196" s="32" t="s">
+      <c r="C196" s="18" t="s">
         <v>523</v>
       </c>
       <c r="D196" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="E196" s="26" t="s">
+      <c r="E196" s="12" t="s">
         <v>524</v>
       </c>
-      <c r="F196" s="25" t="s">
+      <c r="F196" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G196" s="25" t="s">
+      <c r="G196" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H196" s="25" t="s">
+      <c r="H196" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I196" s="25"/>
+      <c r="I196" s="11"/>
     </row>
     <row r="197" ht="82.8" spans="1:9">
-      <c r="A197" s="25" t="s">
+      <c r="A197" s="11" t="s">
         <v>525</v>
       </c>
-      <c r="B197" s="26" t="s">
+      <c r="B197" s="12" t="s">
         <v>526</v>
       </c>
-      <c r="C197" s="32" t="s">
+      <c r="C197" s="18" t="s">
         <v>527</v>
       </c>
       <c r="D197" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="E197" s="26" t="s">
+      <c r="E197" s="12" t="s">
         <v>528</v>
       </c>
-      <c r="F197" s="25" t="s">
+      <c r="F197" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G197" s="25" t="s">
+      <c r="G197" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H197" s="25" t="s">
+      <c r="H197" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I197" s="25"/>
+      <c r="I197" s="11"/>
     </row>
     <row r="198" ht="82.8" spans="1:9">
-      <c r="A198" s="25" t="s">
+      <c r="A198" s="11" t="s">
         <v>529</v>
       </c>
-      <c r="B198" s="26" t="s">
+      <c r="B198" s="12" t="s">
         <v>530</v>
       </c>
-      <c r="C198" s="32" t="s">
+      <c r="C198" s="18" t="s">
         <v>531</v>
       </c>
       <c r="D198" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="E198" s="26" t="s">
+      <c r="E198" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="F198" s="25" t="s">
+      <c r="F198" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G198" s="25" t="s">
+      <c r="G198" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H198" s="25" t="s">
+      <c r="H198" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I198" s="25"/>
+      <c r="I198" s="11"/>
     </row>
     <row r="199" ht="82.8" spans="1:9">
-      <c r="A199" s="25" t="s">
+      <c r="A199" s="11" t="s">
         <v>533</v>
       </c>
-      <c r="B199" s="26" t="s">
+      <c r="B199" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="C199" s="32" t="s">
+      <c r="C199" s="18" t="s">
         <v>535</v>
       </c>
       <c r="D199" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="E199" s="26" t="s">
+      <c r="E199" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="F199" s="25" t="s">
+      <c r="F199" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G199" s="25" t="s">
+      <c r="G199" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H199" s="25" t="s">
+      <c r="H199" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I199" s="25"/>
+      <c r="I199" s="11"/>
     </row>
     <row r="200" ht="82.8" spans="1:9">
-      <c r="A200" s="25" t="s">
+      <c r="A200" s="11" t="s">
         <v>537</v>
       </c>
-      <c r="B200" s="26" t="s">
+      <c r="B200" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="C200" s="32" t="s">
+      <c r="C200" s="18" t="s">
         <v>539</v>
       </c>
       <c r="D200" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="E200" s="26" t="s">
+      <c r="E200" s="12" t="s">
         <v>540</v>
       </c>
-      <c r="F200" s="25" t="s">
+      <c r="F200" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G200" s="25" t="s">
+      <c r="G200" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H200" s="25" t="s">
+      <c r="H200" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I200" s="25"/>
+      <c r="I200" s="11"/>
     </row>
     <row r="201" ht="82.8" spans="1:9">
-      <c r="A201" s="25" t="s">
+      <c r="A201" s="11" t="s">
         <v>541</v>
       </c>
-      <c r="B201" s="26" t="s">
+      <c r="B201" s="12" t="s">
         <v>542</v>
       </c>
-      <c r="C201" s="32" t="s">
+      <c r="C201" s="18" t="s">
         <v>543</v>
       </c>
       <c r="D201" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="E201" s="26" t="s">
+      <c r="E201" s="12" t="s">
         <v>544</v>
       </c>
-      <c r="F201" s="25" t="s">
+      <c r="F201" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G201" s="25" t="s">
+      <c r="G201" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H201" s="25" t="s">
+      <c r="H201" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I201" s="25"/>
+      <c r="I201" s="11"/>
     </row>
     <row r="202" ht="96.6" spans="1:9">
-      <c r="A202" s="25" t="s">
+      <c r="A202" s="11" t="s">
         <v>545</v>
       </c>
-      <c r="B202" s="26" t="s">
+      <c r="B202" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="C202" s="32" t="s">
+      <c r="C202" s="18" t="s">
         <v>547</v>
       </c>
       <c r="D202" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="E202" s="26" t="s">
+      <c r="E202" s="12" t="s">
         <v>548</v>
       </c>
-      <c r="F202" s="25" t="s">
+      <c r="F202" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G202" s="25" t="s">
+      <c r="G202" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H202" s="25" t="s">
+      <c r="H202" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I202" s="25"/>
+      <c r="I202" s="11"/>
     </row>
     <row r="203" ht="82.8" spans="1:9">
-      <c r="A203" s="25" t="s">
+      <c r="A203" s="11" t="s">
         <v>549</v>
       </c>
-      <c r="B203" s="26" t="s">
+      <c r="B203" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="C203" s="32" t="s">
+      <c r="C203" s="18" t="s">
         <v>551</v>
       </c>
       <c r="D203" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="E203" s="26" t="s">
+      <c r="E203" s="12" t="s">
         <v>552</v>
       </c>
-      <c r="F203" s="25" t="s">
+      <c r="F203" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G203" s="25" t="s">
+      <c r="G203" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H203" s="25" t="s">
+      <c r="H203" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I203" s="25"/>
+      <c r="I203" s="11"/>
     </row>
     <row r="204" ht="82.8" spans="1:9">
-      <c r="A204" s="25" t="s">
+      <c r="A204" s="11" t="s">
         <v>553</v>
       </c>
-      <c r="B204" s="26" t="s">
+      <c r="B204" s="12" t="s">
         <v>554</v>
       </c>
-      <c r="C204" s="32" t="s">
+      <c r="C204" s="18" t="s">
         <v>555</v>
       </c>
       <c r="D204" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="E204" s="26" t="s">
+      <c r="E204" s="12" t="s">
         <v>556</v>
       </c>
-      <c r="F204" s="25" t="s">
+      <c r="F204" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G204" s="25" t="s">
+      <c r="G204" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H204" s="25" t="s">
+      <c r="H204" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I204" s="25"/>
+      <c r="I204" s="11"/>
     </row>
     <row r="205" ht="82.8" spans="1:9">
-      <c r="A205" s="25" t="s">
+      <c r="A205" s="11" t="s">
         <v>557</v>
       </c>
-      <c r="B205" s="26" t="s">
+      <c r="B205" s="12" t="s">
         <v>558</v>
       </c>
-      <c r="C205" s="32" t="s">
+      <c r="C205" s="18" t="s">
         <v>559</v>
       </c>
       <c r="D205" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="E205" s="26" t="s">
+      <c r="E205" s="12" t="s">
         <v>560</v>
       </c>
-      <c r="F205" s="25" t="s">
+      <c r="F205" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G205" s="25" t="s">
+      <c r="G205" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H205" s="25" t="s">
+      <c r="H205" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I205" s="25"/>
+      <c r="I205" s="11"/>
     </row>
     <row r="206" ht="82.8" spans="1:9">
-      <c r="A206" s="25" t="s">
+      <c r="A206" s="11" t="s">
         <v>561</v>
       </c>
-      <c r="B206" s="26" t="s">
+      <c r="B206" s="12" t="s">
         <v>562</v>
       </c>
-      <c r="C206" s="32" t="s">
+      <c r="C206" s="18" t="s">
         <v>563</v>
       </c>
       <c r="D206" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="E206" s="26" t="s">
+      <c r="E206" s="12" t="s">
         <v>564</v>
       </c>
-      <c r="F206" s="25" t="s">
+      <c r="F206" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G206" s="25" t="s">
+      <c r="G206" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H206" s="25" t="s">
+      <c r="H206" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I206" s="25"/>
+      <c r="I206" s="11"/>
     </row>
     <row r="207" ht="82.8" spans="1:9">
-      <c r="A207" s="25" t="s">
+      <c r="A207" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="B207" s="26" t="s">
+      <c r="B207" s="12" t="s">
         <v>566</v>
       </c>
-      <c r="C207" s="32" t="s">
+      <c r="C207" s="18" t="s">
         <v>567</v>
       </c>
       <c r="D207" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="E207" s="26" t="s">
+      <c r="E207" s="12" t="s">
         <v>568</v>
       </c>
-      <c r="F207" s="25" t="s">
+      <c r="F207" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G207" s="25" t="s">
+      <c r="G207" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H207" s="25" t="s">
+      <c r="H207" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I207" s="25"/>
+      <c r="I207" s="11"/>
     </row>
     <row r="208" ht="82.8" spans="1:9">
-      <c r="A208" s="25" t="s">
+      <c r="A208" s="11" t="s">
         <v>569</v>
       </c>
-      <c r="B208" s="26" t="s">
+      <c r="B208" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="C208" s="32" t="s">
+      <c r="C208" s="18" t="s">
         <v>571</v>
       </c>
       <c r="D208" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="E208" s="26" t="s">
+      <c r="E208" s="12" t="s">
         <v>572</v>
       </c>
-      <c r="F208" s="25" t="s">
+      <c r="F208" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G208" s="25" t="s">
+      <c r="G208" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H208" s="25" t="s">
+      <c r="H208" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I208" s="25"/>
+      <c r="I208" s="11"/>
     </row>
     <row r="209" ht="82.8" spans="1:9">
-      <c r="A209" s="25" t="s">
+      <c r="A209" s="11" t="s">
         <v>573</v>
       </c>
-      <c r="B209" s="26" t="s">
+      <c r="B209" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="C209" s="32" t="s">
+      <c r="C209" s="18" t="s">
         <v>575</v>
       </c>
       <c r="D209" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="E209" s="26" t="s">
+      <c r="E209" s="12" t="s">
         <v>576</v>
       </c>
-      <c r="F209" s="25" t="s">
+      <c r="F209" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G209" s="25" t="s">
+      <c r="G209" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H209" s="25" t="s">
+      <c r="H209" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I209" s="25"/>
+      <c r="I209" s="11"/>
     </row>
     <row r="215" spans="1:9">
       <c r="A215" s="17" t="s">
@@ -16912,382 +17484,382 @@
       </c>
     </row>
     <row r="218" ht="124.2" spans="1:9">
-      <c r="A218" s="25" t="s">
+      <c r="A218" s="11" t="s">
         <v>578</v>
       </c>
-      <c r="B218" s="26" t="s">
+      <c r="B218" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="C218" s="32" t="s">
+      <c r="C218" s="18" t="s">
         <v>580</v>
       </c>
       <c r="D218" s="13" t="s">
         <v>581</v>
       </c>
-      <c r="E218" s="26" t="s">
+      <c r="E218" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="F218" s="25" t="s">
+      <c r="F218" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="G218" s="25" t="s">
+      <c r="G218" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H218" s="25" t="s">
+      <c r="H218" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I218" s="25"/>
+      <c r="I218" s="11"/>
     </row>
     <row r="219" ht="124.2" spans="1:9">
-      <c r="A219" s="25" t="s">
+      <c r="A219" s="11" t="s">
         <v>583</v>
       </c>
-      <c r="B219" s="26" t="s">
+      <c r="B219" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="C219" s="32" t="s">
+      <c r="C219" s="18" t="s">
         <v>585</v>
       </c>
       <c r="D219" s="13" t="s">
         <v>581</v>
       </c>
-      <c r="E219" s="26" t="s">
+      <c r="E219" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="F219" s="25" t="s">
+      <c r="F219" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="G219" s="25" t="s">
+      <c r="G219" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H219" s="25" t="s">
+      <c r="H219" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I219" s="25"/>
+      <c r="I219" s="11"/>
     </row>
     <row r="220" ht="124.2" spans="1:9">
-      <c r="A220" s="25" t="s">
+      <c r="A220" s="11" t="s">
         <v>587</v>
       </c>
-      <c r="B220" s="26" t="s">
+      <c r="B220" s="12" t="s">
         <v>588</v>
       </c>
-      <c r="C220" s="32" t="s">
+      <c r="C220" s="18" t="s">
         <v>589</v>
       </c>
       <c r="D220" s="13" t="s">
         <v>581</v>
       </c>
-      <c r="E220" s="26" t="s">
+      <c r="E220" s="12" t="s">
         <v>590</v>
       </c>
-      <c r="F220" s="25" t="s">
+      <c r="F220" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="G220" s="25" t="s">
+      <c r="G220" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H220" s="25" t="s">
+      <c r="H220" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I220" s="25"/>
+      <c r="I220" s="11"/>
     </row>
     <row r="221" ht="124.2" spans="1:9">
-      <c r="A221" s="25" t="s">
+      <c r="A221" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="B221" s="26" t="s">
+      <c r="B221" s="12" t="s">
         <v>592</v>
       </c>
-      <c r="C221" s="32" t="s">
+      <c r="C221" s="18" t="s">
         <v>593</v>
       </c>
       <c r="D221" s="13" t="s">
         <v>581</v>
       </c>
-      <c r="E221" s="26" t="s">
+      <c r="E221" s="12" t="s">
         <v>594</v>
       </c>
-      <c r="F221" s="25" t="s">
+      <c r="F221" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="G221" s="25" t="s">
+      <c r="G221" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H221" s="25" t="s">
+      <c r="H221" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I221" s="25"/>
+      <c r="I221" s="11"/>
     </row>
     <row r="222" ht="124.2" spans="1:9">
-      <c r="A222" s="25" t="s">
+      <c r="A222" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="B222" s="26" t="s">
+      <c r="B222" s="12" t="s">
         <v>596</v>
       </c>
-      <c r="C222" s="32" t="s">
+      <c r="C222" s="18" t="s">
         <v>597</v>
       </c>
       <c r="D222" s="13" t="s">
         <v>581</v>
       </c>
-      <c r="E222" s="26" t="s">
+      <c r="E222" s="12" t="s">
         <v>598</v>
       </c>
-      <c r="F222" s="25" t="s">
+      <c r="F222" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="G222" s="25" t="s">
+      <c r="G222" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H222" s="25" t="s">
+      <c r="H222" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I222" s="25"/>
+      <c r="I222" s="11"/>
     </row>
     <row r="223" ht="124.2" spans="1:9">
-      <c r="A223" s="25" t="s">
+      <c r="A223" s="11" t="s">
         <v>599</v>
       </c>
-      <c r="B223" s="26" t="s">
+      <c r="B223" s="12" t="s">
         <v>600</v>
       </c>
-      <c r="C223" s="32" t="s">
+      <c r="C223" s="18" t="s">
         <v>601</v>
       </c>
       <c r="D223" s="13" t="s">
         <v>581</v>
       </c>
-      <c r="E223" s="26" t="s">
+      <c r="E223" s="12" t="s">
         <v>602</v>
       </c>
-      <c r="F223" s="25" t="s">
+      <c r="F223" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="G223" s="25" t="s">
+      <c r="G223" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H223" s="25" t="s">
+      <c r="H223" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I223" s="25"/>
+      <c r="I223" s="11"/>
     </row>
     <row r="224" ht="124.2" spans="1:9">
-      <c r="A224" s="25" t="s">
+      <c r="A224" s="11" t="s">
         <v>603</v>
       </c>
-      <c r="B224" s="26" t="s">
+      <c r="B224" s="12" t="s">
         <v>604</v>
       </c>
-      <c r="C224" s="32" t="s">
+      <c r="C224" s="18" t="s">
         <v>605</v>
       </c>
       <c r="D224" s="13" t="s">
         <v>581</v>
       </c>
-      <c r="E224" s="26" t="s">
+      <c r="E224" s="12" t="s">
         <v>606</v>
       </c>
-      <c r="F224" s="25" t="s">
+      <c r="F224" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="G224" s="25" t="s">
+      <c r="G224" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H224" s="25" t="s">
+      <c r="H224" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I224" s="25"/>
+      <c r="I224" s="11"/>
     </row>
     <row r="225" ht="124.2" spans="1:9">
-      <c r="A225" s="25" t="s">
+      <c r="A225" s="11" t="s">
         <v>607</v>
       </c>
-      <c r="B225" s="26" t="s">
+      <c r="B225" s="12" t="s">
         <v>608</v>
       </c>
-      <c r="C225" s="32" t="s">
+      <c r="C225" s="18" t="s">
         <v>609</v>
       </c>
       <c r="D225" s="13" t="s">
         <v>610</v>
       </c>
-      <c r="E225" s="26" t="s">
+      <c r="E225" s="12" t="s">
         <v>611</v>
       </c>
-      <c r="F225" s="25" t="s">
+      <c r="F225" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="G225" s="25" t="s">
+      <c r="G225" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H225" s="25" t="s">
+      <c r="H225" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I225" s="25"/>
+      <c r="I225" s="11"/>
     </row>
     <row r="226" ht="124.2" spans="1:9">
-      <c r="A226" s="25" t="s">
+      <c r="A226" s="11" t="s">
         <v>612</v>
       </c>
-      <c r="B226" s="26" t="s">
+      <c r="B226" s="12" t="s">
         <v>613</v>
       </c>
-      <c r="C226" s="32" t="s">
+      <c r="C226" s="18" t="s">
         <v>614</v>
       </c>
       <c r="D226" s="13" t="s">
         <v>610</v>
       </c>
-      <c r="E226" s="26" t="s">
+      <c r="E226" s="12" t="s">
         <v>615</v>
       </c>
-      <c r="F226" s="25" t="s">
+      <c r="F226" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="G226" s="25" t="s">
+      <c r="G226" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H226" s="25" t="s">
+      <c r="H226" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I226" s="25"/>
+      <c r="I226" s="11"/>
     </row>
     <row r="227" ht="124.2" spans="1:9">
-      <c r="A227" s="25" t="s">
+      <c r="A227" s="11" t="s">
         <v>616</v>
       </c>
-      <c r="B227" s="26" t="s">
+      <c r="B227" s="12" t="s">
         <v>617</v>
       </c>
-      <c r="C227" s="32" t="s">
+      <c r="C227" s="18" t="s">
         <v>618</v>
       </c>
       <c r="D227" s="13" t="s">
         <v>610</v>
       </c>
-      <c r="E227" s="26" t="s">
+      <c r="E227" s="12" t="s">
         <v>619</v>
       </c>
-      <c r="F227" s="25" t="s">
+      <c r="F227" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="G227" s="25" t="s">
+      <c r="G227" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H227" s="25" t="s">
+      <c r="H227" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I227" s="25"/>
+      <c r="I227" s="11"/>
     </row>
     <row r="228" ht="110.4" spans="1:9">
-      <c r="A228" s="25" t="s">
+      <c r="A228" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="B228" s="26" t="s">
+      <c r="B228" s="12" t="s">
         <v>621</v>
       </c>
-      <c r="C228" s="32" t="s">
+      <c r="C228" s="18" t="s">
         <v>622</v>
       </c>
       <c r="D228" s="13" t="s">
         <v>623</v>
       </c>
-      <c r="E228" s="26" t="s">
+      <c r="E228" s="12" t="s">
         <v>624</v>
       </c>
-      <c r="F228" s="25" t="s">
+      <c r="F228" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="G228" s="25" t="s">
+      <c r="G228" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H228" s="25" t="s">
+      <c r="H228" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I228" s="25"/>
+      <c r="I228" s="11"/>
     </row>
     <row r="229" ht="110.4" spans="1:9">
-      <c r="A229" s="25" t="s">
+      <c r="A229" s="11" t="s">
         <v>625</v>
       </c>
-      <c r="B229" s="26" t="s">
+      <c r="B229" s="12" t="s">
         <v>626</v>
       </c>
-      <c r="C229" s="32" t="s">
+      <c r="C229" s="18" t="s">
         <v>627</v>
       </c>
       <c r="D229" s="13" t="s">
         <v>623</v>
       </c>
-      <c r="E229" s="26" t="s">
+      <c r="E229" s="12" t="s">
         <v>628</v>
       </c>
-      <c r="F229" s="25" t="s">
+      <c r="F229" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="G229" s="25" t="s">
+      <c r="G229" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H229" s="25" t="s">
+      <c r="H229" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I229" s="25"/>
+      <c r="I229" s="11"/>
     </row>
     <row r="230" ht="110.4" spans="1:9">
-      <c r="A230" s="25" t="s">
+      <c r="A230" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="B230" s="26" t="s">
+      <c r="B230" s="12" t="s">
         <v>630</v>
       </c>
-      <c r="C230" s="32" t="s">
+      <c r="C230" s="18" t="s">
         <v>631</v>
       </c>
       <c r="D230" s="13" t="s">
         <v>623</v>
       </c>
-      <c r="E230" s="26" t="s">
+      <c r="E230" s="12" t="s">
         <v>632</v>
       </c>
-      <c r="F230" s="25" t="s">
+      <c r="F230" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="G230" s="25" t="s">
+      <c r="G230" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H230" s="25" t="s">
+      <c r="H230" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I230" s="25"/>
+      <c r="I230" s="11"/>
     </row>
     <row r="231" ht="110.4" spans="1:9">
-      <c r="A231" s="25" t="s">
+      <c r="A231" s="11" t="s">
         <v>633</v>
       </c>
-      <c r="B231" s="26" t="s">
+      <c r="B231" s="12" t="s">
         <v>634</v>
       </c>
-      <c r="C231" s="32" t="s">
+      <c r="C231" s="18" t="s">
         <v>635</v>
       </c>
       <c r="D231" s="13" t="s">
         <v>623</v>
       </c>
-      <c r="E231" s="26" t="s">
+      <c r="E231" s="12" t="s">
         <v>636</v>
       </c>
-      <c r="F231" s="25" t="s">
+      <c r="F231" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="G231" s="25" t="s">
+      <c r="G231" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H231" s="25" t="s">
+      <c r="H231" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I231" s="25"/>
+      <c r="I231" s="11"/>
     </row>
     <row r="238" spans="1:9">
       <c r="A238" s="17" t="s">
@@ -17343,203 +17915,1573 @@
       </c>
     </row>
     <row r="241" ht="82.8" spans="1:9">
-      <c r="A241" s="25" t="s">
+      <c r="A241" s="11" t="s">
         <v>638</v>
       </c>
-      <c r="B241" s="26" t="s">
+      <c r="B241" s="12" t="s">
         <v>639</v>
       </c>
-      <c r="C241" s="31" t="s">
+      <c r="C241" s="13" t="s">
         <v>640</v>
       </c>
       <c r="D241" s="13" t="s">
         <v>641</v>
       </c>
-      <c r="E241" s="26" t="s">
+      <c r="E241" s="12" t="s">
         <v>642</v>
       </c>
-      <c r="F241" s="25" t="s">
+      <c r="F241" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G241" s="25" t="s">
+      <c r="G241" s="11" t="s">
         <v>643</v>
       </c>
-      <c r="H241" s="25" t="s">
+      <c r="H241" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I241" s="25"/>
+      <c r="I241" s="11"/>
     </row>
     <row r="242" ht="82.8" spans="1:9">
-      <c r="A242" s="25"/>
-      <c r="B242" s="26" t="s">
+      <c r="A242" s="11" t="s">
         <v>644</v>
       </c>
-      <c r="C242" s="31" t="s">
+      <c r="B242" s="12" t="s">
         <v>645</v>
+      </c>
+      <c r="C242" s="13" t="s">
+        <v>646</v>
       </c>
       <c r="D242" s="13" t="s">
         <v>641</v>
       </c>
-      <c r="E242" s="26" t="s">
-        <v>646</v>
-      </c>
-      <c r="F242" s="25" t="s">
+      <c r="E242" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="F242" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G242" s="25" t="s">
+      <c r="G242" s="11" t="s">
         <v>643</v>
       </c>
-      <c r="H242" s="25" t="s">
+      <c r="H242" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I242" s="25"/>
+      <c r="I242" s="11"/>
     </row>
     <row r="243" ht="82.8" spans="1:9">
-      <c r="A243" s="25"/>
-      <c r="B243" s="26" t="s">
-        <v>647</v>
-      </c>
-      <c r="C243" s="31" t="s">
+      <c r="A243" s="11" t="s">
         <v>648</v>
+      </c>
+      <c r="B243" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="C243" s="13" t="s">
+        <v>650</v>
       </c>
       <c r="D243" s="13" t="s">
         <v>641</v>
       </c>
-      <c r="E243" s="26" t="s">
-        <v>649</v>
-      </c>
-      <c r="F243" s="25" t="s">
+      <c r="E243" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="F243" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G243" s="25" t="s">
+      <c r="G243" s="11" t="s">
         <v>643</v>
       </c>
-      <c r="H243" s="25" t="s">
+      <c r="H243" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I243" s="25"/>
+      <c r="I243" s="11"/>
     </row>
     <row r="244" ht="82.8" spans="1:9">
-      <c r="A244" s="25"/>
-      <c r="B244" s="26" t="s">
-        <v>650</v>
-      </c>
-      <c r="C244" s="31" t="s">
-        <v>651</v>
+      <c r="A244" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="B244" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="C244" s="13" t="s">
+        <v>654</v>
       </c>
       <c r="D244" s="13" t="s">
         <v>641</v>
       </c>
-      <c r="E244" s="26" t="s">
-        <v>652</v>
-      </c>
-      <c r="F244" s="25" t="s">
+      <c r="E244" s="12" t="s">
+        <v>655</v>
+      </c>
+      <c r="F244" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G244" s="25" t="s">
+      <c r="G244" s="11" t="s">
         <v>643</v>
       </c>
-      <c r="H244" s="25" t="s">
+      <c r="H244" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I244" s="25"/>
+      <c r="I244" s="11"/>
     </row>
     <row r="245" ht="82.8" spans="1:9">
-      <c r="A245" s="25"/>
-      <c r="B245" s="26" t="s">
-        <v>653</v>
-      </c>
-      <c r="C245" s="31" t="s">
-        <v>654</v>
+      <c r="A245" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="B245" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="C245" s="13" t="s">
+        <v>658</v>
       </c>
       <c r="D245" s="13" t="s">
         <v>641</v>
       </c>
-      <c r="E245" s="26" t="s">
-        <v>655</v>
-      </c>
-      <c r="F245" s="25" t="s">
+      <c r="E245" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="F245" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G245" s="25" t="s">
+      <c r="G245" s="11" t="s">
         <v>643</v>
       </c>
-      <c r="H245" s="25" t="s">
+      <c r="H245" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I245" s="25"/>
+      <c r="I245" s="11"/>
     </row>
     <row r="246" ht="82.8" spans="1:9">
-      <c r="A246" s="25"/>
-      <c r="B246" s="26" t="s">
-        <v>656</v>
-      </c>
-      <c r="C246" s="31" t="s">
-        <v>657</v>
+      <c r="A246" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="B246" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="C246" s="13" t="s">
+        <v>662</v>
       </c>
       <c r="D246" s="13" t="s">
         <v>641</v>
       </c>
-      <c r="E246" s="26" t="s">
+      <c r="E246" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="F246" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G246" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="H246" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I246" s="11"/>
+    </row>
+    <row r="247" ht="82.8" spans="1:9">
+      <c r="A247" s="11" t="s">
+        <v>663</v>
+      </c>
+      <c r="B247" s="12" t="s">
+        <v>664</v>
+      </c>
+      <c r="C247" s="13" t="s">
+        <v>665</v>
+      </c>
+      <c r="D247" s="13" t="s">
+        <v>641</v>
+      </c>
+      <c r="E247" s="12" t="s">
+        <v>666</v>
+      </c>
+      <c r="F247" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G247" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="H247" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I247" s="11"/>
+    </row>
+    <row r="248" ht="82.8" spans="1:9">
+      <c r="A248" s="11" t="s">
+        <v>667</v>
+      </c>
+      <c r="B248" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="C248" s="13" t="s">
+        <v>669</v>
+      </c>
+      <c r="D248" s="13" t="s">
+        <v>641</v>
+      </c>
+      <c r="E248" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="F248" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G248" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="H248" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I248" s="11"/>
+    </row>
+    <row r="249" ht="82.8" spans="1:9">
+      <c r="A249" s="11" t="s">
+        <v>670</v>
+      </c>
+      <c r="B249" s="12" t="s">
+        <v>671</v>
+      </c>
+      <c r="C249" s="13" t="s">
+        <v>672</v>
+      </c>
+      <c r="D249" s="13" t="s">
+        <v>641</v>
+      </c>
+      <c r="E249" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="F249" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G249" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="H249" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I249" s="11"/>
+    </row>
+    <row r="250" ht="82.8" spans="1:9">
+      <c r="A250" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="B250" s="12" t="s">
+        <v>674</v>
+      </c>
+      <c r="C250" s="13" t="s">
+        <v>675</v>
+      </c>
+      <c r="D250" s="13" t="s">
+        <v>641</v>
+      </c>
+      <c r="E250" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="F250" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G250" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="H250" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I250" s="11"/>
+    </row>
+    <row r="251" s="1" customFormat="1" ht="82.8" spans="1:9">
+      <c r="A251" s="11" t="s">
+        <v>676</v>
+      </c>
+      <c r="B251" s="12" t="s">
+        <v>677</v>
+      </c>
+      <c r="C251" s="13" t="s">
+        <v>678</v>
+      </c>
+      <c r="D251" s="13" t="s">
+        <v>641</v>
+      </c>
+      <c r="E251" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="F251" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G251" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="H251" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I251" s="11"/>
+    </row>
+    <row r="256" spans="1:9">
+      <c r="A256" s="17" t="s">
+        <v>679</v>
+      </c>
+      <c r="B256" s="17"/>
+      <c r="C256" s="17"/>
+      <c r="D256" s="17"/>
+      <c r="E256" s="17"/>
+      <c r="F256" s="17"/>
+      <c r="G256" s="17"/>
+      <c r="H256" s="17"/>
+      <c r="I256" s="17"/>
+    </row>
+    <row r="257" spans="1:9">
+      <c r="A257" s="17"/>
+      <c r="B257" s="17"/>
+      <c r="C257" s="17"/>
+      <c r="D257" s="17"/>
+      <c r="E257" s="17"/>
+      <c r="F257" s="17"/>
+      <c r="G257" s="17"/>
+      <c r="H257" s="17"/>
+      <c r="I257" s="17"/>
+    </row>
+    <row r="258" s="2" customFormat="1" spans="1:9">
+      <c r="A258" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B258" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C258" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D258" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E258" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F258" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G258" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H258" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I258" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="259" ht="82.8" spans="1:9">
+      <c r="A259" s="29" t="s">
+        <v>680</v>
+      </c>
+      <c r="B259" s="12" t="s">
+        <v>681</v>
+      </c>
+      <c r="C259" s="13" t="s">
+        <v>640</v>
+      </c>
+      <c r="D259" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="E259" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="F259" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G259" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="H259" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I259" s="29"/>
+    </row>
+    <row r="260" ht="82.8" spans="1:9">
+      <c r="A260" s="29" t="s">
+        <v>684</v>
+      </c>
+      <c r="B260" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="C260" s="13" t="s">
+        <v>646</v>
+      </c>
+      <c r="D260" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="E260" s="12" t="s">
+        <v>685</v>
+      </c>
+      <c r="F260" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G260" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="H260" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I260" s="29"/>
+    </row>
+    <row r="261" ht="82.8" spans="1:9">
+      <c r="A261" s="29" t="s">
+        <v>686</v>
+      </c>
+      <c r="B261" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="C261" s="13" t="s">
+        <v>650</v>
+      </c>
+      <c r="D261" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="E261" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="F261" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G261" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="H261" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I261" s="29"/>
+    </row>
+    <row r="262" ht="82.8" spans="1:9">
+      <c r="A262" s="29" t="s">
+        <v>687</v>
+      </c>
+      <c r="B262" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="C262" s="13" t="s">
+        <v>654</v>
+      </c>
+      <c r="D262" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="E262" s="12" t="s">
         <v>655</v>
       </c>
-      <c r="F246" s="25" t="s">
+      <c r="F262" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G246" s="25" t="s">
+      <c r="G262" s="11" t="s">
         <v>643</v>
       </c>
-      <c r="H246" s="25" t="s">
+      <c r="H262" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I246" s="25"/>
-    </row>
-    <row r="247" spans="1:9">
-      <c r="A247" s="25"/>
-      <c r="B247" s="26"/>
-      <c r="C247" s="32"/>
-      <c r="D247" s="32"/>
-      <c r="E247" s="26"/>
-      <c r="F247" s="25"/>
-      <c r="G247" s="25"/>
-      <c r="H247" s="25"/>
-      <c r="I247" s="25"/>
-    </row>
-    <row r="248" spans="1:9">
-      <c r="A248" s="25"/>
-      <c r="B248" s="26"/>
-      <c r="C248" s="32"/>
-      <c r="D248" s="32"/>
-      <c r="E248" s="26"/>
-      <c r="F248" s="25"/>
-      <c r="G248" s="25"/>
-      <c r="H248" s="25"/>
-      <c r="I248" s="25"/>
-    </row>
-    <row r="249" spans="1:9">
-      <c r="A249" s="25"/>
-      <c r="B249" s="26"/>
-      <c r="C249" s="32"/>
-      <c r="D249" s="32"/>
-      <c r="E249" s="26"/>
-      <c r="F249" s="25"/>
-      <c r="G249" s="25"/>
-      <c r="H249" s="25"/>
-      <c r="I249" s="25"/>
-    </row>
-    <row r="250" spans="1:9">
-      <c r="A250" s="25"/>
-      <c r="B250" s="26"/>
-      <c r="C250" s="32"/>
-      <c r="D250" s="32"/>
-      <c r="E250" s="26"/>
-      <c r="F250" s="25"/>
-      <c r="G250" s="25"/>
-      <c r="H250" s="25"/>
-      <c r="I250" s="25"/>
+      <c r="I262" s="29"/>
+    </row>
+    <row r="263" ht="82.8" spans="1:9">
+      <c r="A263" s="29" t="s">
+        <v>688</v>
+      </c>
+      <c r="B263" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="C263" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="D263" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="E263" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="F263" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G263" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="H263" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I263" s="29"/>
+    </row>
+    <row r="264" ht="82.8" spans="1:9">
+      <c r="A264" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="B264" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="C264" s="13" t="s">
+        <v>662</v>
+      </c>
+      <c r="D264" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="E264" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="F264" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G264" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="H264" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I264" s="29"/>
+    </row>
+    <row r="265" ht="82.8" spans="1:9">
+      <c r="A265" s="29" t="s">
+        <v>690</v>
+      </c>
+      <c r="B265" s="12" t="s">
+        <v>664</v>
+      </c>
+      <c r="C265" s="13" t="s">
+        <v>665</v>
+      </c>
+      <c r="D265" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="E265" s="12" t="s">
+        <v>666</v>
+      </c>
+      <c r="F265" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G265" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="H265" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I265" s="29"/>
+    </row>
+    <row r="266" ht="82.8" spans="1:9">
+      <c r="A266" s="29" t="s">
+        <v>691</v>
+      </c>
+      <c r="B266" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="C266" s="13" t="s">
+        <v>669</v>
+      </c>
+      <c r="D266" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="E266" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="F266" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G266" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="H266" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I266" s="29"/>
+    </row>
+    <row r="267" ht="82.8" spans="1:9">
+      <c r="A267" s="29" t="s">
+        <v>692</v>
+      </c>
+      <c r="B267" s="12" t="s">
+        <v>671</v>
+      </c>
+      <c r="C267" s="13" t="s">
+        <v>672</v>
+      </c>
+      <c r="D267" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="E267" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="F267" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G267" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="H267" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I267" s="29"/>
+    </row>
+    <row r="268" ht="82.8" spans="1:9">
+      <c r="A268" s="29" t="s">
+        <v>693</v>
+      </c>
+      <c r="B268" s="12" t="s">
+        <v>674</v>
+      </c>
+      <c r="C268" s="13" t="s">
+        <v>675</v>
+      </c>
+      <c r="D268" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="E268" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="F268" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G268" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="H268" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I268" s="29"/>
+    </row>
+    <row r="269" ht="82.8" spans="1:9">
+      <c r="A269" s="29" t="s">
+        <v>694</v>
+      </c>
+      <c r="B269" s="12" t="s">
+        <v>677</v>
+      </c>
+      <c r="C269" s="13" t="s">
+        <v>678</v>
+      </c>
+      <c r="D269" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="E269" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="F269" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G269" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="H269" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I269" s="29"/>
+    </row>
+    <row r="275" spans="1:9">
+      <c r="A275" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="B275" s="17"/>
+      <c r="C275" s="17"/>
+      <c r="D275" s="17"/>
+      <c r="E275" s="17"/>
+      <c r="F275" s="17"/>
+      <c r="G275" s="17"/>
+      <c r="H275" s="17"/>
+      <c r="I275" s="17"/>
+    </row>
+    <row r="276" spans="1:9">
+      <c r="A276" s="17"/>
+      <c r="B276" s="17"/>
+      <c r="C276" s="17"/>
+      <c r="D276" s="17"/>
+      <c r="E276" s="17"/>
+      <c r="F276" s="17"/>
+      <c r="G276" s="17"/>
+      <c r="H276" s="17"/>
+      <c r="I276" s="17"/>
+    </row>
+    <row r="277" s="2" customFormat="1" spans="1:9">
+      <c r="A277" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B277" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C277" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D277" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E277" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F277" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G277" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H277" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I277" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="278" ht="69" spans="1:9">
+      <c r="A278" s="29" t="s">
+        <v>696</v>
+      </c>
+      <c r="B278" s="30" t="s">
+        <v>697</v>
+      </c>
+      <c r="C278" s="31" t="s">
+        <v>698</v>
+      </c>
+      <c r="D278" s="13" t="s">
+        <v>699</v>
+      </c>
+      <c r="E278" s="30" t="s">
+        <v>700</v>
+      </c>
+      <c r="F278" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="G278" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="H278" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I278" s="29"/>
+    </row>
+    <row r="279" ht="69" spans="1:9">
+      <c r="A279" s="29" t="s">
+        <v>701</v>
+      </c>
+      <c r="B279" s="30" t="s">
+        <v>702</v>
+      </c>
+      <c r="C279" s="31" t="s">
+        <v>703</v>
+      </c>
+      <c r="D279" s="13" t="s">
+        <v>704</v>
+      </c>
+      <c r="E279" s="30" t="s">
+        <v>705</v>
+      </c>
+      <c r="F279" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="G279" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="H279" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I279" s="29"/>
+    </row>
+    <row r="280" ht="69" spans="1:9">
+      <c r="A280" s="29" t="s">
+        <v>706</v>
+      </c>
+      <c r="B280" s="30" t="s">
+        <v>707</v>
+      </c>
+      <c r="C280" s="31" t="s">
+        <v>708</v>
+      </c>
+      <c r="D280" s="13" t="s">
+        <v>709</v>
+      </c>
+      <c r="E280" s="30" t="s">
+        <v>710</v>
+      </c>
+      <c r="F280" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="G280" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="H280" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I280" s="29"/>
+    </row>
+    <row r="281" ht="69" spans="1:9">
+      <c r="A281" s="29" t="s">
+        <v>711</v>
+      </c>
+      <c r="B281" s="30" t="s">
+        <v>712</v>
+      </c>
+      <c r="C281" s="31" t="s">
+        <v>713</v>
+      </c>
+      <c r="D281" s="13" t="s">
+        <v>714</v>
+      </c>
+      <c r="E281" s="30" t="s">
+        <v>715</v>
+      </c>
+      <c r="F281" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="G281" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="H281" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I281" s="29"/>
+    </row>
+    <row r="286" spans="1:9">
+      <c r="A286" s="17" t="s">
+        <v>716</v>
+      </c>
+      <c r="B286" s="17"/>
+      <c r="C286" s="17"/>
+      <c r="D286" s="17"/>
+      <c r="E286" s="17"/>
+      <c r="F286" s="17"/>
+      <c r="G286" s="17"/>
+      <c r="H286" s="17"/>
+      <c r="I286" s="17"/>
+    </row>
+    <row r="287" spans="1:9">
+      <c r="A287" s="17"/>
+      <c r="B287" s="17"/>
+      <c r="C287" s="17"/>
+      <c r="D287" s="17"/>
+      <c r="E287" s="17"/>
+      <c r="F287" s="17"/>
+      <c r="G287" s="17"/>
+      <c r="H287" s="17"/>
+      <c r="I287" s="17"/>
+    </row>
+    <row r="288" s="2" customFormat="1" spans="1:9">
+      <c r="A288" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B288" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C288" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D288" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E288" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F288" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G288" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H288" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I288" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="289" ht="82.8" spans="1:9">
+      <c r="A289" s="29" t="s">
+        <v>717</v>
+      </c>
+      <c r="B289" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="C289" s="32" t="s">
+        <v>719</v>
+      </c>
+      <c r="D289" s="13" t="s">
+        <v>720</v>
+      </c>
+      <c r="E289" s="30" t="s">
+        <v>721</v>
+      </c>
+      <c r="F289" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="G289" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="H289" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I289" s="29"/>
+    </row>
+    <row r="290" ht="82.8" spans="1:9">
+      <c r="A290" s="29"/>
+      <c r="B290" s="30" t="s">
+        <v>722</v>
+      </c>
+      <c r="C290" s="32" t="s">
+        <v>723</v>
+      </c>
+      <c r="D290" s="13" t="s">
+        <v>720</v>
+      </c>
+      <c r="E290" s="30" t="s">
+        <v>724</v>
+      </c>
+      <c r="F290" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="G290" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="H290" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I290" s="29"/>
+    </row>
+    <row r="291" ht="82.8" spans="1:9">
+      <c r="A291" s="29"/>
+      <c r="B291" s="30" t="s">
+        <v>725</v>
+      </c>
+      <c r="C291" s="32" t="s">
+        <v>726</v>
+      </c>
+      <c r="D291" s="13" t="s">
+        <v>720</v>
+      </c>
+      <c r="E291" s="30" t="s">
+        <v>727</v>
+      </c>
+      <c r="F291" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="G291" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="H291" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I291" s="29"/>
+    </row>
+    <row r="292" ht="82.8" spans="1:9">
+      <c r="A292" s="29"/>
+      <c r="B292" s="30" t="s">
+        <v>728</v>
+      </c>
+      <c r="C292" s="32" t="s">
+        <v>729</v>
+      </c>
+      <c r="D292" s="13" t="s">
+        <v>720</v>
+      </c>
+      <c r="E292" s="30" t="s">
+        <v>730</v>
+      </c>
+      <c r="F292" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="G292" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="H292" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I292" s="29"/>
+    </row>
+    <row r="293" ht="82.8" spans="1:9">
+      <c r="A293" s="29"/>
+      <c r="B293" s="30" t="s">
+        <v>731</v>
+      </c>
+      <c r="C293" s="32" t="s">
+        <v>732</v>
+      </c>
+      <c r="D293" s="13" t="s">
+        <v>720</v>
+      </c>
+      <c r="E293" s="30" t="s">
+        <v>733</v>
+      </c>
+      <c r="F293" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="G293" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="H293" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I293" s="29"/>
+    </row>
+    <row r="294" ht="82.8" spans="1:9">
+      <c r="A294" s="29"/>
+      <c r="B294" s="30" t="s">
+        <v>734</v>
+      </c>
+      <c r="C294" s="32" t="s">
+        <v>735</v>
+      </c>
+      <c r="D294" s="13" t="s">
+        <v>720</v>
+      </c>
+      <c r="E294" s="30" t="s">
+        <v>736</v>
+      </c>
+      <c r="F294" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="G294" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="H294" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I294" s="29"/>
+    </row>
+    <row r="295" ht="82.8" spans="1:9">
+      <c r="A295" s="29"/>
+      <c r="B295" s="30" t="s">
+        <v>737</v>
+      </c>
+      <c r="C295" s="32" t="s">
+        <v>738</v>
+      </c>
+      <c r="D295" s="13" t="s">
+        <v>720</v>
+      </c>
+      <c r="E295" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="F295" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="G295" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="H295" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I295" s="29"/>
+    </row>
+    <row r="296" spans="1:9">
+      <c r="A296" s="29"/>
+      <c r="B296" s="30"/>
+      <c r="C296" s="31"/>
+      <c r="D296" s="31"/>
+      <c r="E296" s="30"/>
+      <c r="F296" s="29"/>
+      <c r="G296" s="29"/>
+      <c r="H296" s="29"/>
+      <c r="I296" s="29"/>
+    </row>
+    <row r="297" spans="1:9">
+      <c r="A297" s="29"/>
+      <c r="B297" s="30"/>
+      <c r="C297" s="31"/>
+      <c r="D297" s="31"/>
+      <c r="E297" s="30"/>
+      <c r="F297" s="29"/>
+      <c r="G297" s="29"/>
+      <c r="H297" s="29"/>
+      <c r="I297" s="29"/>
+    </row>
+    <row r="298" spans="1:9">
+      <c r="A298" s="29"/>
+      <c r="B298" s="30"/>
+      <c r="C298" s="31"/>
+      <c r="D298" s="31"/>
+      <c r="E298" s="30"/>
+      <c r="F298" s="29"/>
+      <c r="G298" s="29"/>
+      <c r="H298" s="29"/>
+      <c r="I298" s="29"/>
+    </row>
+    <row r="299" spans="1:9">
+      <c r="A299" s="29"/>
+      <c r="B299" s="30"/>
+      <c r="C299" s="31"/>
+      <c r="D299" s="31"/>
+      <c r="E299" s="30"/>
+      <c r="F299" s="29"/>
+      <c r="G299" s="29"/>
+      <c r="H299" s="29"/>
+      <c r="I299" s="29"/>
+    </row>
+    <row r="300" spans="1:9">
+      <c r="A300" s="29"/>
+      <c r="B300" s="30"/>
+      <c r="C300" s="31"/>
+      <c r="D300" s="31"/>
+      <c r="E300" s="30"/>
+      <c r="F300" s="29"/>
+      <c r="G300" s="29"/>
+      <c r="H300" s="29"/>
+      <c r="I300" s="29"/>
+    </row>
+    <row r="301" spans="1:9">
+      <c r="A301" s="29"/>
+      <c r="B301" s="30"/>
+      <c r="C301" s="31"/>
+      <c r="D301" s="31"/>
+      <c r="E301" s="30"/>
+      <c r="F301" s="29"/>
+      <c r="G301" s="29"/>
+      <c r="H301" s="29"/>
+      <c r="I301" s="29"/>
+    </row>
+    <row r="302" spans="1:9">
+      <c r="A302" s="29"/>
+      <c r="B302" s="30"/>
+      <c r="C302" s="31"/>
+      <c r="D302" s="31"/>
+      <c r="E302" s="30"/>
+      <c r="F302" s="29"/>
+      <c r="G302" s="29"/>
+      <c r="H302" s="29"/>
+      <c r="I302" s="29"/>
+    </row>
+    <row r="308" spans="1:9">
+      <c r="A308" s="17" t="s">
+        <v>740</v>
+      </c>
+      <c r="B308" s="17"/>
+      <c r="C308" s="17"/>
+      <c r="D308" s="17"/>
+      <c r="E308" s="17"/>
+      <c r="F308" s="17"/>
+      <c r="G308" s="17"/>
+      <c r="H308" s="17"/>
+      <c r="I308" s="17"/>
+    </row>
+    <row r="309" spans="1:9">
+      <c r="A309" s="17"/>
+      <c r="B309" s="17"/>
+      <c r="C309" s="17"/>
+      <c r="D309" s="17"/>
+      <c r="E309" s="17"/>
+      <c r="F309" s="17"/>
+      <c r="G309" s="17"/>
+      <c r="H309" s="17"/>
+      <c r="I309" s="17"/>
+    </row>
+    <row r="310" s="2" customFormat="1" spans="1:9">
+      <c r="A310" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B310" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C310" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D310" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E310" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F310" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G310" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H310" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I310" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="311" ht="69" spans="1:9">
+      <c r="A311" s="29" t="s">
+        <v>741</v>
+      </c>
+      <c r="B311" s="30" t="s">
+        <v>742</v>
+      </c>
+      <c r="C311" s="31" t="s">
+        <v>743</v>
+      </c>
+      <c r="D311" s="13" t="s">
+        <v>744</v>
+      </c>
+      <c r="E311" s="30" t="s">
+        <v>745</v>
+      </c>
+      <c r="F311" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="G311" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="H311" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I311" s="29"/>
+    </row>
+    <row r="312" ht="69" spans="1:9">
+      <c r="A312" s="29" t="s">
+        <v>746</v>
+      </c>
+      <c r="B312" s="30" t="s">
+        <v>747</v>
+      </c>
+      <c r="C312" s="31" t="s">
+        <v>748</v>
+      </c>
+      <c r="D312" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="E312" s="30" t="s">
+        <v>750</v>
+      </c>
+      <c r="F312" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="G312" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="H312" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I312" s="29"/>
+    </row>
+    <row r="313" ht="69" spans="1:9">
+      <c r="A313" s="29" t="s">
+        <v>751</v>
+      </c>
+      <c r="B313" s="30" t="s">
+        <v>752</v>
+      </c>
+      <c r="C313" s="31" t="s">
+        <v>753</v>
+      </c>
+      <c r="D313" s="13" t="s">
+        <v>754</v>
+      </c>
+      <c r="E313" s="30" t="s">
+        <v>755</v>
+      </c>
+      <c r="F313" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="G313" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="H313" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I313" s="29"/>
+    </row>
+    <row r="314" ht="69" spans="1:9">
+      <c r="A314" s="29" t="s">
+        <v>756</v>
+      </c>
+      <c r="B314" s="30" t="s">
+        <v>757</v>
+      </c>
+      <c r="C314" s="31" t="s">
+        <v>758</v>
+      </c>
+      <c r="D314" s="13" t="s">
+        <v>759</v>
+      </c>
+      <c r="E314" s="30" t="s">
+        <v>760</v>
+      </c>
+      <c r="F314" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="G314" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="H314" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I314" s="29"/>
+    </row>
+    <row r="315" ht="69" spans="1:9">
+      <c r="A315" s="29" t="s">
+        <v>761</v>
+      </c>
+      <c r="B315" s="30" t="s">
+        <v>762</v>
+      </c>
+      <c r="C315" s="31" t="s">
+        <v>763</v>
+      </c>
+      <c r="D315" s="13" t="s">
+        <v>764</v>
+      </c>
+      <c r="E315" s="30" t="s">
+        <v>765</v>
+      </c>
+      <c r="F315" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="G315" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="H315" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I315" s="29"/>
+    </row>
+    <row r="316" ht="69" spans="1:9">
+      <c r="A316" s="29" t="s">
+        <v>766</v>
+      </c>
+      <c r="B316" s="30" t="s">
+        <v>767</v>
+      </c>
+      <c r="C316" s="31" t="s">
+        <v>768</v>
+      </c>
+      <c r="D316" s="13" t="s">
+        <v>769</v>
+      </c>
+      <c r="E316" s="30" t="s">
+        <v>770</v>
+      </c>
+      <c r="F316" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="G316" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="H316" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I316" s="29"/>
+    </row>
+    <row r="317" ht="69" spans="1:9">
+      <c r="A317" s="29" t="s">
+        <v>771</v>
+      </c>
+      <c r="B317" s="30" t="s">
+        <v>772</v>
+      </c>
+      <c r="C317" s="31" t="s">
+        <v>773</v>
+      </c>
+      <c r="D317" s="13" t="s">
+        <v>774</v>
+      </c>
+      <c r="E317" s="30" t="s">
+        <v>775</v>
+      </c>
+      <c r="F317" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="G317" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="H317" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I317" s="29"/>
+    </row>
+    <row r="318" ht="69" spans="1:9">
+      <c r="A318" s="29" t="s">
+        <v>776</v>
+      </c>
+      <c r="B318" s="30" t="s">
+        <v>777</v>
+      </c>
+      <c r="C318" s="31" t="s">
+        <v>778</v>
+      </c>
+      <c r="D318" s="13" t="s">
+        <v>779</v>
+      </c>
+      <c r="E318" s="30" t="s">
+        <v>780</v>
+      </c>
+      <c r="F318" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="G318" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="H318" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I318" s="29"/>
+    </row>
+    <row r="319" ht="69" spans="1:9">
+      <c r="A319" s="29" t="s">
+        <v>781</v>
+      </c>
+      <c r="B319" s="30" t="s">
+        <v>782</v>
+      </c>
+      <c r="C319" s="31" t="s">
+        <v>783</v>
+      </c>
+      <c r="D319" s="13" t="s">
+        <v>784</v>
+      </c>
+      <c r="E319" s="30" t="s">
+        <v>785</v>
+      </c>
+      <c r="F319" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="G319" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="H319" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I319" s="29"/>
+    </row>
+    <row r="323" spans="1:9">
+      <c r="A323" s="17" t="s">
+        <v>786</v>
+      </c>
+      <c r="B323" s="17"/>
+      <c r="C323" s="17"/>
+      <c r="D323" s="17"/>
+      <c r="E323" s="17"/>
+      <c r="F323" s="17"/>
+      <c r="G323" s="17"/>
+      <c r="H323" s="17"/>
+      <c r="I323" s="17"/>
+    </row>
+    <row r="324" spans="1:9">
+      <c r="A324" s="17"/>
+      <c r="B324" s="17"/>
+      <c r="C324" s="17"/>
+      <c r="D324" s="17"/>
+      <c r="E324" s="17"/>
+      <c r="F324" s="17"/>
+      <c r="G324" s="17"/>
+      <c r="H324" s="17"/>
+      <c r="I324" s="17"/>
+    </row>
+    <row r="325" s="2" customFormat="1" spans="1:9">
+      <c r="A325" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B325" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C325" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D325" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E325" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F325" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G325" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H325" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I325" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="326" ht="69" spans="1:9">
+      <c r="A326" s="29" t="s">
+        <v>787</v>
+      </c>
+      <c r="B326" s="30" t="s">
+        <v>788</v>
+      </c>
+      <c r="C326" s="31" t="s">
+        <v>789</v>
+      </c>
+      <c r="D326" s="13" t="s">
+        <v>790</v>
+      </c>
+      <c r="E326" s="30" t="s">
+        <v>791</v>
+      </c>
+      <c r="F326" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="G326" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="H326" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I326" s="29"/>
+    </row>
+    <row r="327" ht="69" spans="1:9">
+      <c r="A327" s="29"/>
+      <c r="B327" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="C327" s="31" t="s">
+        <v>793</v>
+      </c>
+      <c r="D327" s="13" t="s">
+        <v>790</v>
+      </c>
+      <c r="E327" s="30" t="s">
+        <v>794</v>
+      </c>
+      <c r="F327" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="G327" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="H327" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I327" s="29"/>
+    </row>
+    <row r="328" ht="69" spans="1:9">
+      <c r="A328" s="29"/>
+      <c r="B328" s="30" t="s">
+        <v>795</v>
+      </c>
+      <c r="C328" s="31" t="s">
+        <v>796</v>
+      </c>
+      <c r="D328" s="13" t="s">
+        <v>790</v>
+      </c>
+      <c r="E328" s="30" t="s">
+        <v>797</v>
+      </c>
+      <c r="F328" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="G328" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="H328" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I328" s="29"/>
+    </row>
+    <row r="329" ht="69" spans="1:9">
+      <c r="A329" s="29"/>
+      <c r="B329" s="30" t="s">
+        <v>798</v>
+      </c>
+      <c r="C329" s="31" t="s">
+        <v>799</v>
+      </c>
+      <c r="D329" s="13" t="s">
+        <v>790</v>
+      </c>
+      <c r="E329" s="30" t="s">
+        <v>800</v>
+      </c>
+      <c r="F329" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="G329" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="H329" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I329" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="17">
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="A25:I26"/>
     <mergeCell ref="A46:I47"/>
@@ -17552,6 +19494,11 @@
     <mergeCell ref="A179:I180"/>
     <mergeCell ref="A215:I216"/>
     <mergeCell ref="A238:I239"/>
+    <mergeCell ref="A256:I257"/>
+    <mergeCell ref="A275:I276"/>
+    <mergeCell ref="A286:I287"/>
+    <mergeCell ref="A308:I309"/>
+    <mergeCell ref="A323:I324"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
